--- a/Threshold_calib.xlsx
+++ b/Threshold_calib.xlsx
@@ -38,7 +38,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -60,6 +60,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
@@ -110,8 +117,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -187,7 +198,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -239,126 +250,210 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$19</c:f>
+              <c:f>Sheet1!$A$2:$A$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>86888</c:v>
+                  <c:v>10.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19575</c:v>
+                  <c:v>9.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7207</c:v>
+                  <c:v>8.42</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>38525</c:v>
+                  <c:v>7.52</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25008</c:v>
+                  <c:v>6.92</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14321</c:v>
+                  <c:v>6.49</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11381</c:v>
+                  <c:v>6.13</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>64700</c:v>
+                  <c:v>5.71</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>5.27</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2</c:v>
+                  <c:v>5.52</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3</c:v>
+                  <c:v>5.08</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4</c:v>
+                  <c:v>4.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5</c:v>
+                  <c:v>4.54</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6</c:v>
+                  <c:v>4.22</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7</c:v>
+                  <c:v>3.92</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8</c:v>
+                  <c:v>3.72</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10</c:v>
+                  <c:v>3.19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.03</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.89</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.38</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.11</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.98</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.83</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.64</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.43</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.22</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.07</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$19</c:f>
+              <c:f>Sheet1!$C$2:$C$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>16783</c:v>
+                  <c:v>628</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1381</c:v>
+                  <c:v>642</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>613</c:v>
+                  <c:v>753</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5335</c:v>
+                  <c:v>916</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2362</c:v>
+                  <c:v>993</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1005</c:v>
+                  <c:v>1028</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>850</c:v>
+                  <c:v>1122</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11490</c:v>
+                  <c:v>1244</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v/>
+                  <c:v>1373</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v/>
+                  <c:v>1272</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v/>
+                  <c:v>1372</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v/>
+                  <c:v>1404</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v/>
+                  <c:v>1595</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v/>
+                  <c:v>1533</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v/>
+                  <c:v>1655</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v/>
+                  <c:v>1682</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v/>
+                  <c:v>1835</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v/>
+                  <c:v>2117</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2073</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2173</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2384</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2624</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2648</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2838</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3148</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3238</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3568</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4272</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5306</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6775</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8590</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>16311</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -408,137 +503,221 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$19</c:f>
+              <c:f>Sheet1!$A$2:$A$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v>86888</c:v>
+                  <c:v>10.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19575</c:v>
+                  <c:v>9.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7207</c:v>
+                  <c:v>8.42</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>38525</c:v>
+                  <c:v>7.52</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25008</c:v>
+                  <c:v>6.92</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14321</c:v>
+                  <c:v>6.49</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11381</c:v>
+                  <c:v>6.13</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>64700</c:v>
+                  <c:v>5.71</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>5.27</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2</c:v>
+                  <c:v>5.52</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3</c:v>
+                  <c:v>5.08</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4</c:v>
+                  <c:v>4.8</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5</c:v>
+                  <c:v>4.54</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6</c:v>
+                  <c:v>4.22</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7</c:v>
+                  <c:v>3.92</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8</c:v>
+                  <c:v>3.72</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10</c:v>
+                  <c:v>3.19</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.03</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.89</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.38</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.11</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.98</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.83</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.64</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.43</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.22</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.07</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$19</c:f>
+              <c:f>Sheet1!$C$2:$C$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
-                  <c:v/>
+                  <c:v>628</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v/>
+                  <c:v>642</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v/>
+                  <c:v>753</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v/>
+                  <c:v>916</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v/>
+                  <c:v>993</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v/>
+                  <c:v>1028</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v/>
+                  <c:v>1122</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v/>
+                  <c:v>1244</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v/>
+                  <c:v>1373</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v/>
+                  <c:v>1272</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v/>
+                  <c:v>1372</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v/>
+                  <c:v>1404</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v/>
+                  <c:v>1595</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v/>
+                  <c:v>1533</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v/>
+                  <c:v>1655</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v/>
+                  <c:v>1682</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v/>
+                  <c:v>1835</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v/>
+                  <c:v>2117</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2073</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2173</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2384</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2624</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2648</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2838</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3148</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3238</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3568</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4272</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5306</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6775</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8590</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>16311</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="86135515"/>
-        <c:axId val="30174430"/>
+        <c:axId val="57795765"/>
+        <c:axId val="54108511"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="86135515"/>
+        <c:axId val="57795765"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -580,12 +759,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="30174430"/>
+        <c:crossAx val="54108511"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="30174430"/>
+        <c:axId val="54108511"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -627,7 +806,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86135515"/>
+        <c:crossAx val="57795765"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -660,15 +839,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>571680</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>190440</xdr:rowOff>
+      <xdr:colOff>389880</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>87480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>190440</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>88920</xdr:rowOff>
+      <xdr:colOff>7920</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>92160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -676,8 +855,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8523720" y="2311200"/>
-        <a:ext cx="5737680" cy="2743200"/>
+        <a:off x="8398800" y="87480"/>
+        <a:ext cx="5916240" cy="1147680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -695,20 +874,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="10.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="10.8"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -723,97 +902,409 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>0.29</v>
+      <c r="A2" s="1" t="n">
+        <v>10.25</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>86888</v>
+        <v>7078</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>16783</v>
+        <v>628</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
-        <v>4.51</v>
+        <v>9.6</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>19575</v>
+        <v>8054</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>1381</v>
+        <v>642</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
-        <v>10.26</v>
+        <v>8.42</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>7207</v>
+        <v>10326</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>613</v>
+        <v>753</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
-        <v>1.4</v>
+        <v>7.52</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>38525</v>
+        <v>12046</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>5335</v>
+        <v>916</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
-        <v>2.84</v>
+        <v>6.92</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>25008</v>
+        <v>13599</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>2362</v>
+        <v>993</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
-        <v>6.68</v>
+        <v>6.49</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>14321</v>
+        <v>14594</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>1005</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
-        <v>8.07</v>
+        <v>6.13</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>11381</v>
+        <v>15399</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>850</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
-        <v>0.69</v>
+        <v>5.71</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>64700</v>
+        <v>16202</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>11490</v>
-      </c>
-    </row>
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>17595</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>5.52</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>16666</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>17759</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>18516</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>19486</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>19925</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>21162</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>21645</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>22387</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>23269</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>2117</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>24256</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>2073</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>24518</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>2173</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>25353</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>2384</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>25892</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>2624</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>26928</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>2648</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>27921</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>2838</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>28973</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>3148</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>30379</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>3238</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>32054</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>3568</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>34844</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>4272</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>39568</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>5306</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>46825</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>6775</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>53838</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>8590</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>84670</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>16311</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
